--- a/data/trans_camb/P42-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P42-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,9</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,63</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,14</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,85; 21,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,64; 23,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,36; 2,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,85; 21,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,64; 23,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,36; 2,71</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,08%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,75; 53,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,46; 58,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,32; 6,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,75; 53,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,46; 58,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,32; 6,35</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,54</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 7,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 4,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,5; -4,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 7,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 4,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,5; -4,18</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,83%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 9,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 5,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,18; -4,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 9,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 5,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,18; -4,76</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,95</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 7,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 4,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,02; 0,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 7,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 4,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,02; 0,29</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,16%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 8,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 4,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 0,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 8,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 4,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 0,32</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 5,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 5,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 5,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 5,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 5,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 5,57</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 6,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 6,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 6,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 6,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 6,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 6,16</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,07; 12,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,49; 11,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 11,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,07; 12,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,49; 11,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 11,25</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,35%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,68; 15,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,95; 13,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,74; 13,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,68; 15,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,95; 13,73</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,74; 13,57</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,98</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,98</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,9</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,71; 16,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,01; 20,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,21; 22,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,71; 16,34</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,01; 20,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,21; 22,53</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,92%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,96; 25,99</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,2; 32,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,43; 34,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,96; 25,99</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,2; 32,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,43; 34,73</t>
         </is>
       </c>
     </row>
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,34; 9,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,38; 9,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,94; 5,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,34; 9,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,38; 9,9</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,94; 5,15</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,86; 12,61</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,94; 12,67</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,7; 6,55</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,86; 12,61</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,94; 12,67</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,7; 6,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-5,33</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 2,71</t>
+          <t>-14,52; 3,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 2,71</t>
+          <t>-14,52; 3,89</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>-12,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>-12,24%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 6,35</t>
+          <t>-31,65; 9,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 6,35</t>
+          <t>-31,65; 9,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,54</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,54</t>
+          <t>-5,71</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -4,18</t>
+          <t>-12,05; 2,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -4,18</t>
+          <t>-12,05; 2,55</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>-6,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>-6,48%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,18; -4,76</t>
+          <t>-13,47; 3,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,18; -4,76</t>
+          <t>-13,47; 3,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-2,67</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 0,29</t>
+          <t>-5,71; 0,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 0,29</t>
+          <t>-5,71; 0,61</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>-2,87%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 0,32</t>
+          <t>-6,06; 0,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 0,32</t>
+          <t>-6,06; 0,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,94</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 5,57</t>
+          <t>0,39; 5,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 5,57</t>
+          <t>0,39; 5,9</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 6,16</t>
+          <t>0,42; 6,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 6,16</t>
+          <t>0,42; 6,52</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,29</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,32; 11,25</t>
+          <t>3,42; 11,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,32; 11,25</t>
+          <t>3,42; 11,35</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,46%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,74; 13,57</t>
+          <t>3,83; 13,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,74; 13,57</t>
+          <t>3,83; 13,68</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>11,71</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>15,98</t>
+          <t>12,39</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>-18,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>11,71</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>15,98</t>
+          <t>12,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>-18,6</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,34</t>
+          <t>3,42; 14,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,01; 20,58</t>
+          <t>6,36; 17,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 22,53</t>
+          <t>-53,7; 19,19</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,34</t>
+          <t>3,42; 14,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>11,01; 20,58</t>
+          <t>6,36; 17,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 22,53</t>
+          <t>-53,7; 19,19</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>-24,76%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>-24,76%</t>
         </is>
       </c>
     </row>
@@ -1886,39 +1886,39 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>9,96; 25,99</t>
+          <t>4,6; 21,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,2; 32,82</t>
+          <t>8,19; 24,58</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 34,73</t>
+          <t>-70,88; 26,07</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,96; 25,99</t>
+          <t>4,6; 21,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>16,2; 32,82</t>
+          <t>8,19; 24,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 34,73</t>
+          <t>-70,88; 26,07</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>15,35</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>20,32</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>25,77</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>15,35</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>20,32</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>25,77</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,88</t>
+          <t>7,72; 22,89</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,9</t>
+          <t>12,43; 27,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 5,15</t>
+          <t>19,47; 32,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,88</t>
+          <t>7,72; 22,89</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,9</t>
+          <t>12,43; 27,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 5,15</t>
+          <t>19,47; 32,33</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>45,16%</t>
         </is>
       </c>
     </row>
@@ -2102,44 +2102,261 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
+          <t>12,15; 43,37</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>20,36; 52,93</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>31,28; 62,85</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>12,15; 43,37</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>20,36; 52,93</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>31,28; 62,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>8,05</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>8,05</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 9,88</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 9,9</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-20,77; 6,2</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 9,88</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 9,9</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-20,77; 6,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-0,71%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-0,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
           <t>7,86; 12,61</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>7,94; 12,67</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-13,7; 6,55</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-26,04; 7,84</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>7,86; 12,61</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>7,94; 12,67</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-13,7; 6,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-26,04; 7,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P42-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42-Edad-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 21,3</t>
+          <t>8,13; 21,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 23,25</t>
+          <t>9,72; 23,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 3,89</t>
+          <t>-15,15; 3,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 21,3</t>
+          <t>8,13; 21,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 23,25</t>
+          <t>9,72; 23,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 3,89</t>
+          <t>-15,15; 3,41</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 53,46</t>
+          <t>17,34; 52,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,46; 58,71</t>
+          <t>21,23; 57,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 9,19</t>
+          <t>-33,68; 8,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 53,46</t>
+          <t>17,34; 52,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,46; 58,71</t>
+          <t>21,23; 57,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 9,19</t>
+          <t>-33,68; 8,26</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,83</t>
+          <t>0,93; 7,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,76</t>
+          <t>-2,38; 4,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 2,55</t>
+          <t>-11,97; 3,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,83</t>
+          <t>0,93; 7,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,76</t>
+          <t>-2,38; 4,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 2,55</t>
+          <t>-11,97; 3,47</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,15</t>
+          <t>1,02; 8,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,57</t>
+          <t>-2,63; 5,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 3,03</t>
+          <t>-13,5; 4,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,15</t>
+          <t>1,02; 8,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,57</t>
+          <t>-2,63; 5,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 3,03</t>
+          <t>-13,5; 4,03</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,53</t>
+          <t>2,92; 7,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,26</t>
+          <t>-1,08; 3,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 0,61</t>
+          <t>-5,7; 0,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,53</t>
+          <t>2,92; 7,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,26</t>
+          <t>-1,08; 3,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 0,61</t>
+          <t>-5,7; 0,55</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,27</t>
+          <t>3,06; 7,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,66</t>
+          <t>-1,13; 4,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,65</t>
+          <t>-6,05; 0,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,27</t>
+          <t>3,06; 7,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,66</t>
+          <t>-1,13; 4,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,65</t>
+          <t>-6,05; 0,57</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 5,6</t>
+          <t>-0,09; 5,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 5,49</t>
+          <t>-0,02; 5,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,9</t>
+          <t>0,35; 6,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 5,6</t>
+          <t>-0,09; 5,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 5,49</t>
+          <t>-0,02; 5,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,9</t>
+          <t>0,35; 6,01</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 6,19</t>
+          <t>-0,03; 6,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 6,11</t>
+          <t>-0,02; 6,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,52</t>
+          <t>0,37; 6,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 6,19</t>
+          <t>-0,03; 6,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 6,11</t>
+          <t>-0,02; 6,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,52</t>
+          <t>0,37; 6,66</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,07; 12,48</t>
+          <t>4,06; 12,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,49; 11,47</t>
+          <t>3,07; 11,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,42; 11,35</t>
+          <t>3,62; 11,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,07; 12,48</t>
+          <t>4,06; 12,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,49; 11,47</t>
+          <t>3,07; 11,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,42; 11,35</t>
+          <t>3,62; 11,23</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,68; 15,1</t>
+          <t>4,65; 14,47</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,95; 13,73</t>
+          <t>3,49; 13,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,83; 13,68</t>
+          <t>4,13; 13,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,68; 15,1</t>
+          <t>4,65; 14,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3,95; 13,73</t>
+          <t>3,49; 13,79</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,83; 13,68</t>
+          <t>4,13; 13,36</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,42; 14,93</t>
+          <t>3,78; 14,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,36; 17,6</t>
+          <t>6,7; 18,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-53,7; 19,19</t>
+          <t>-54,23; 19,12</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,42; 14,93</t>
+          <t>3,78; 14,94</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,36; 17,6</t>
+          <t>6,7; 18,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-53,7; 19,19</t>
+          <t>-54,23; 19,12</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,6; 21,06</t>
+          <t>4,84; 21,15</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,19; 24,58</t>
+          <t>8,45; 25,81</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-70,88; 26,07</t>
+          <t>-70,91; 25,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,6; 21,06</t>
+          <t>4,84; 21,15</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>8,19; 24,58</t>
+          <t>8,45; 25,81</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-70,88; 26,07</t>
+          <t>-70,91; 25,9</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7,72; 22,89</t>
+          <t>8,66; 22,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,43; 27,39</t>
+          <t>12,96; 27,85</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,47; 32,33</t>
+          <t>19,22; 32,51</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,72; 22,89</t>
+          <t>8,66; 22,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>12,43; 27,39</t>
+          <t>12,96; 27,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,47; 32,33</t>
+          <t>19,22; 32,51</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>12,15; 43,37</t>
+          <t>14,06; 43,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>20,36; 52,93</t>
+          <t>20,97; 52,77</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>31,28; 62,85</t>
+          <t>30,88; 63,48</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>12,15; 43,37</t>
+          <t>14,06; 43,07</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>20,36; 52,93</t>
+          <t>20,97; 52,77</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>31,28; 62,85</t>
+          <t>30,88; 63,48</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,88</t>
+          <t>6,43; 9,98</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,9</t>
+          <t>6,4; 9,93</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 6,2</t>
+          <t>-19,42; 6,21</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,88</t>
+          <t>6,43; 9,98</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,9</t>
+          <t>6,4; 9,93</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 6,2</t>
+          <t>-19,42; 6,21</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>7,86; 12,61</t>
+          <t>8,02; 12,86</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,67</t>
+          <t>8,01; 12,81</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 7,84</t>
+          <t>-24,65; 7,89</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>7,86; 12,61</t>
+          <t>8,02; 12,86</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,67</t>
+          <t>8,01; 12,81</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 7,84</t>
+          <t>-24,65; 7,89</t>
         </is>
       </c>
     </row>
